--- a/biology/Zoologie/Heliophanus/Heliophanus.xlsx
+++ b/biology/Zoologie/Heliophanus/Heliophanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliophanus est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliophanus est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie, en Europe et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie, en Europe et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 14/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 14/03/2024) :
 Heliophanus abditus Wesołowska, 1986
 Heliophanus activus (Blackwall, 1877)
 Heliophanus acutissimus Wesołowska, 1986
@@ -635,7 +651,7 @@
 Heliophanus wesolowskae Rakov &amp; Logunov, 1997
 Heliophanus wulingensis Peng &amp; Xie, 1996
 Heliophanus xerxesi Logunov, 2009
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Heliophanus extinctus Berland, 1939</t>
         </is>
       </c>
@@ -664,11 +680,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par C. L. Koch en 1833. Son espèce type est Heliophanus cupreus.
-Trapezocephalus[3], placé en synonymie par Wesołowska en 1986[4], a été relevé de synonymie par Wesołowska en 2024[5].
-Les sous-genres Heliocapensis[4] et Helafricanus[4] ont été élevés au rang de genre par Wesołowska en 2024[5].
+Trapezocephalus, placé en synonymie par Wesołowska en 1986, a été relevé de synonymie par Wesołowska en 2024.
+Les sous-genres Heliocapensis et Helafricanus ont été élevés au rang de genre par Wesołowska en 2024.
 </t>
         </is>
       </c>
@@ -697,7 +715,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1833 : Arachniden. Deutschlands Insekten, p. 119-121.</t>
         </is>
